--- a/Contracting Dollars by Administration.xlsx
+++ b/Contracting Dollars by Administration.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymathew/Downloads/Spring 2023/Advanced Policy Analysis/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymathew/Downloads/Spring 2023/Advanced Policy Analysis/Repositories/Contracting_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993CBE60-0719-4C47-9EF7-F2E79DC2BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62118E8-9158-C94C-8CEA-754E73454CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Obama Admin First Term" sheetId="1" r:id="rId1"/>
-    <sheet name="Obama Admin Second Term" sheetId="2" r:id="rId2"/>
-    <sheet name="Trump Admin" sheetId="3" r:id="rId3"/>
-    <sheet name="Biden Admin" sheetId="4" r:id="rId4"/>
+    <sheet name="Obama_Admin_First_Term" sheetId="1" r:id="rId1"/>
+    <sheet name="Obama_Admin_Second_Term" sheetId="2" r:id="rId2"/>
+    <sheet name="Trump_Admin" sheetId="3" r:id="rId3"/>
+    <sheet name="Biden_Admin" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -14216,7 +14216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>52265186425.419998</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>60</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>222979511.78999999</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
         <v>62</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>490818536.19999999</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>64</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>13802742.869999999</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>66</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>4615623.82</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
         <v>72</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>67970201.329999998</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>70</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>645777786.51999998</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>76</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>18631937760.75</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
         <v>78</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>140588078</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
         <v>80</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>87470712.450000003</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
         <v>82</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>27198997.190000001</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
         <v>84</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>221763127.00999999</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
         <v>88</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>55778467.869999997</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
         <v>92</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>40112.800000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
         <v>90</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>450149</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
         <v>100</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>507085.44</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
         <v>94</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>719449.59999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>98</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>-3531.19</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>96</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>102</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>712678854.19000006</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
         <v>108</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>6116514.5599999996</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>10798932.949999999</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
         <v>106</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>-3200</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>110</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>-860.35</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
         <v>112</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>309619.43</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>120</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>129747679.23999999</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>114</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>28724.76</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>118</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="24" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A32" s="27" t="s">
         <v>116</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>3100870.62</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>124</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>111686676.59</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
         <v>130</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>6838039.7300000004</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>126</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>136</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>128</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="84" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:58" ht="60" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
         <v>122</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="84" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
         <v>134</v>
       </c>
@@ -21080,7 +21080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A41" s="22" t="s">
         <v>132</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
         <v>140</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="27" t="s">
         <v>138</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
         <v>156</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>1753952.76</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A46" s="27" t="s">
         <v>142</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>16777.7</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
         <v>158</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>6065770</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A48" s="27" t="s">
         <v>144</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>4789163.45</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A50" s="27" t="s">
         <v>154</v>
       </c>
@@ -22840,7 +22840,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A51" s="22" t="s">
         <v>152</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A52" s="27" t="s">
         <v>160</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A53" s="22" t="s">
         <v>146</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A54" s="27" t="s">
         <v>166</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A55" s="22" t="s">
         <v>170</v>
       </c>
@@ -23720,7 +23720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A56" s="27" t="s">
         <v>176</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="84" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
         <v>178</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A58" s="27" t="s">
         <v>174</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
         <v>168</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A60" s="27" t="s">
         <v>185</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="1:58" ht="72" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A61" s="22" t="s">
         <v>191</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>53920.959999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A62" s="27" t="s">
         <v>164</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:58" ht="48" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A63" s="22" t="s">
         <v>183</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A64" s="27" t="s">
         <v>187</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:58" ht="84" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:58" ht="72" x14ac:dyDescent="0.15">
       <c r="A65" s="22" t="s">
         <v>182</v>
       </c>
@@ -25480,7 +25480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:58" ht="36" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:58" ht="24" x14ac:dyDescent="0.15">
       <c r="A66" s="27" t="s">
         <v>172</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:58" ht="96" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A67" s="22" t="s">
         <v>209</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:58" ht="84" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:58" ht="48" x14ac:dyDescent="0.15">
       <c r="A68" s="27" t="s">
         <v>207</v>
       </c>
@@ -26360,7 +26360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:58" ht="108" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:58" ht="60" x14ac:dyDescent="0.15">
       <c r="A71" s="22" t="s">
         <v>203</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:58" ht="60" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:58" ht="36" x14ac:dyDescent="0.15">
       <c r="A72" s="27" t="s">
         <v>201</v>
       </c>
@@ -27074,7 +27074,7 @@
   </sheetPr>
   <dimension ref="A1:BF81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -41389,7 +41389,7 @@
   </sheetPr>
   <dimension ref="A1:BF75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
